--- a/codepdf/netty.xlsx
+++ b/codepdf/netty.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接受客服端的字节消息，转化为mysql的消息格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包字节格式转化为包对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,31 @@
   </si>
   <si>
     <t>前端线程池，接受客服端的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>接受客服端的字节消息，转化为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的消息格式</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="205" zoomScalePageLayoutView="205" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -452,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -460,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -468,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -476,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
